--- a/ig/branch/dev/StructureDefinition-Individual.xlsx
+++ b/ig/branch/dev/StructureDefinition-Individual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -1317,10 +1321,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1790,13 +1794,13 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -1810,10 +1814,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1824,7 +1828,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -1833,19 +1837,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1895,13 +1899,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -1927,10 +1931,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1941,7 +1945,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -1950,16 +1954,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2010,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2042,10 +2046,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2056,28 +2060,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2127,19 +2131,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2159,10 +2163,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2173,7 +2177,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2185,16 +2189,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2220,13 +2224,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2244,19 +2248,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2276,21 +2280,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2302,16 +2306,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2361,22 +2365,22 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>81</v>
@@ -2393,14 +2397,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2419,16 +2423,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2478,7 +2482,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2493,7 +2497,7 @@
         <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>81</v>
@@ -2510,10 +2514,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2536,13 +2540,13 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2581,17 +2585,17 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2603,7 +2607,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2623,13 +2627,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>81</v>
@@ -2639,10 +2643,10 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>81</v>
@@ -2651,13 +2655,13 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2708,7 +2712,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2717,10 +2721,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2740,14 +2744,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2760,25 +2764,25 @@
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2827,7 +2831,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2839,10 +2843,10 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>81</v>
@@ -2859,10 +2863,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2876,26 +2880,26 @@
         <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -2944,7 +2948,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2956,19 +2960,19 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -2976,10 +2980,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2990,103 +2994,103 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3097,10 +3101,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3120,22 +3124,22 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3184,7 +3188,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3196,19 +3200,19 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3216,10 +3220,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3239,22 +3243,22 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3303,7 +3307,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3315,19 +3319,19 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3335,10 +3339,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3349,31 +3353,31 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3398,13 +3402,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3422,31 +3426,31 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3454,10 +3458,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3468,31 +3472,31 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3541,42 +3545,42 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3587,31 +3591,31 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3660,31 +3664,31 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3692,10 +3696,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3715,22 +3719,22 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3779,7 +3783,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3791,19 +3795,19 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3811,10 +3815,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3825,7 +3829,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -3837,17 +3841,17 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3872,13 +3876,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -3896,31 +3900,31 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -3928,10 +3932,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3942,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -3954,19 +3958,19 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4015,31 +4019,31 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4047,10 +4051,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4073,19 +4077,19 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4134,7 +4138,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4146,19 +4150,19 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4166,10 +4170,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4192,19 +4196,19 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4253,7 +4257,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4265,13 +4269,13 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4285,10 +4289,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4299,7 +4303,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4311,13 +4315,13 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4368,13 +4372,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4383,7 +4387,7 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
@@ -4400,14 +4404,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4426,16 +4430,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4485,7 +4489,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4497,10 +4501,10 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
@@ -4517,14 +4521,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4537,25 +4541,25 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4604,7 +4608,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4616,10 +4620,10 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
@@ -4636,10 +4640,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4662,17 +4666,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4697,13 +4701,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4721,7 +4725,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4733,19 +4737,19 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4753,10 +4757,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4767,7 +4771,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4779,17 +4783,17 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4838,31 +4842,31 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4870,10 +4874,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4896,19 +4900,19 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4957,7 +4961,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4969,19 +4973,19 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -4989,10 +4993,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5003,7 +5007,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5015,17 +5019,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5074,31 +5078,31 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5106,10 +5110,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5120,7 +5124,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5132,17 +5136,17 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5167,13 +5171,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5191,31 +5195,31 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5223,10 +5227,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5237,7 +5241,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5249,17 +5253,17 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5308,31 +5312,31 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5340,10 +5344,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5354,7 +5358,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5366,13 +5370,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5423,25 +5427,25 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5455,10 +5459,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5481,19 +5485,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5542,7 +5546,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5554,13 +5558,13 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5574,10 +5578,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5588,7 +5592,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5600,13 +5604,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5657,13 +5661,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -5672,7 +5676,7 @@
         <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -5689,14 +5693,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5715,16 +5719,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5774,7 +5778,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5786,10 +5790,10 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -5806,14 +5810,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5826,25 +5830,25 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5893,7 +5897,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5905,10 +5909,10 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -5925,10 +5929,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5936,10 +5940,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -5951,19 +5955,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -5988,13 +5992,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6012,31 +6016,31 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6044,10 +6048,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6058,7 +6062,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6070,19 +6074,19 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6131,31 +6135,31 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6163,14 +6167,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6189,16 +6193,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6248,7 +6252,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6260,19 +6264,19 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6280,10 +6284,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6294,7 +6298,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6303,22 +6307,22 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6367,25 +6371,25 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6399,10 +6403,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6419,25 +6423,25 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6486,7 +6490,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6498,13 +6502,13 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -6518,10 +6522,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6532,7 +6536,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6544,13 +6548,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6601,13 +6605,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -6616,7 +6620,7 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -6633,14 +6637,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6659,16 +6663,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6718,7 +6722,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6730,10 +6734,10 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -6750,14 +6754,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6770,25 +6774,25 @@
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6837,7 +6841,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6849,10 +6853,10 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -6869,10 +6873,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6880,10 +6884,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6892,19 +6896,19 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6954,31 +6958,31 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -6986,10 +6990,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6997,10 +7001,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7009,16 +7013,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7045,13 +7049,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7069,25 +7073,25 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
